--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L2-業務作業/ForeclosureFee.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L2-業務作業/ForeclosureFee.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L2-業務作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E09250F8-6828-44A2-8917-BD19D38D6CE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB64E00A-90FC-41B5-96F0-02652537FDF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="163">
   <si>
     <t>讀取Key條件</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -192,9 +192,6 @@
   </si>
   <si>
     <t>CloseNo</t>
-  </si>
-  <si>
-    <t>銷帳編號</t>
   </si>
   <si>
     <t>Rmk</t>
@@ -707,6 +704,18 @@
 14:查財產費用
 15:催收沖銷(勿用)
 99:其它</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>更名銷帳編號-&gt;沖銷號碼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>沖銷號碼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>銷帳時新增一筆紀錄號碼(11:全額沖銷、15:催收沖銷)，將此紀錄號碼寫入原被沖銷該筆</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -828,7 +837,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -847,12 +856,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="24">
     <border>
@@ -1120,11 +1123,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
@@ -1133,25 +1136,22 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1160,9 +1160,6 @@
     <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1174,9 +1171,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1221,15 +1215,21 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1239,6 +1239,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1251,7 +1278,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1266,41 +1293,14 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1321,9 +1321,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1361,9 +1361,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1396,26 +1396,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1448,26 +1431,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1641,10 +1607,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1652,532 +1618,537 @@
     <col min="1" max="1" width="5.21875" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.21875" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="39.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.77734375" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.77734375" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="6" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="27.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="21.44140625" style="4"/>
+    <col min="8" max="16384" width="21.44140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="7" t="s">
+      <c r="B1" s="31"/>
+      <c r="C1" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="E1" s="8"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="30"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="31"/>
+      <c r="C3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="31"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="31"/>
+      <c r="C5" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D5" s="13"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="31"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="31"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="15">
+        <v>1</v>
+      </c>
+      <c r="B9" s="56" t="s">
+        <v>155</v>
+      </c>
+      <c r="C9" s="56" t="s">
+        <v>152</v>
+      </c>
+      <c r="D9" s="56" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="56">
+        <v>7</v>
+      </c>
+      <c r="F9" s="56"/>
+      <c r="G9" s="15"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="15">
+        <v>2</v>
+      </c>
+      <c r="B10" s="56" t="s">
+        <v>145</v>
+      </c>
+      <c r="C10" s="56" t="s">
+        <v>146</v>
+      </c>
+      <c r="D10" s="56" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="56">
+        <v>7</v>
+      </c>
+      <c r="F10" s="56"/>
+      <c r="G10" s="15"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="15">
+        <v>3</v>
+      </c>
+      <c r="B11" s="56" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="56" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="56" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="56">
+        <v>3</v>
+      </c>
+      <c r="F11" s="56"/>
+      <c r="G11" s="15"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="15">
+        <v>4</v>
+      </c>
+      <c r="B12" s="56" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="56" t="s">
+        <v>147</v>
+      </c>
+      <c r="D12" s="56" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="56">
+        <v>8</v>
+      </c>
+      <c r="F12" s="56"/>
+      <c r="G12" s="15"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="15">
+        <v>5</v>
+      </c>
+      <c r="B13" s="56" t="s">
         <v>154</v>
       </c>
-      <c r="E1" s="9"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="34"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="11" t="s">
+      <c r="C13" s="56" t="s">
+        <v>148</v>
+      </c>
+      <c r="D13" s="56" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="56">
+        <v>8</v>
+      </c>
+      <c r="F13" s="56"/>
+      <c r="G13" s="15" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="15">
+        <v>6</v>
+      </c>
+      <c r="B14" s="57" t="s">
+        <v>95</v>
+      </c>
+      <c r="C14" s="57" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" s="56" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="56">
+        <v>8</v>
+      </c>
+      <c r="F14" s="57"/>
+      <c r="G14" s="16" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="15">
+        <v>7</v>
+      </c>
+      <c r="B15" s="56" t="s">
+        <v>99</v>
+      </c>
+      <c r="C15" s="56" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="56" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="56">
+        <v>8</v>
+      </c>
+      <c r="F15" s="56"/>
+      <c r="G15" s="15" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="15">
+        <v>8</v>
+      </c>
+      <c r="B16" s="56" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="56" t="s">
+        <v>151</v>
+      </c>
+      <c r="D16" s="56" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="56">
+        <v>16</v>
+      </c>
+      <c r="F16" s="56">
+        <v>2</v>
+      </c>
+      <c r="G16" s="15"/>
+    </row>
+    <row r="17" spans="1:8" ht="275.39999999999998" x14ac:dyDescent="0.3">
+      <c r="A17" s="15">
+        <v>9</v>
+      </c>
+      <c r="B17" s="56" t="s">
+        <v>149</v>
+      </c>
+      <c r="C17" s="56" t="s">
+        <v>150</v>
+      </c>
+      <c r="D17" s="56" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="56">
+        <v>2</v>
+      </c>
+      <c r="F17" s="56"/>
+      <c r="G17" s="15" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="15">
+        <v>10</v>
+      </c>
+      <c r="B18" s="56" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="56" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="56" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="56">
+        <v>6</v>
+      </c>
+      <c r="F18" s="56"/>
+      <c r="G18" s="15"/>
+    </row>
+    <row r="19" spans="1:8" ht="64.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="29">
+        <v>11</v>
+      </c>
+      <c r="B19" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="29" t="s">
+        <v>161</v>
+      </c>
+      <c r="D19" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" s="29">
+        <v>7</v>
+      </c>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="H19" s="58" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="15">
+        <v>12</v>
+      </c>
+      <c r="B20" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="56" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="E20" s="56">
+        <v>60</v>
+      </c>
+      <c r="F20" s="56"/>
+      <c r="G20" s="15"/>
+    </row>
+    <row r="21" spans="1:8" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="15">
+        <v>13</v>
+      </c>
+      <c r="B21" s="56" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" s="56" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" s="56" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" s="56">
+        <v>1</v>
+      </c>
+      <c r="F21" s="56"/>
+      <c r="G21" s="15" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="15">
+        <v>14</v>
+      </c>
+      <c r="B22" s="56" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" s="56" t="s">
+        <v>43</v>
+      </c>
+      <c r="E22" s="56">
+        <v>3</v>
+      </c>
+      <c r="F22" s="56"/>
+      <c r="G22" s="15"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="15">
+        <v>15</v>
+      </c>
+      <c r="B23" s="56" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" s="56" t="s">
+        <v>43</v>
+      </c>
+      <c r="E23" s="56">
+        <v>10</v>
+      </c>
+      <c r="F23" s="56"/>
+      <c r="G23" s="15"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="15">
+        <v>16</v>
+      </c>
+      <c r="B24" s="56" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="56" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24" s="56" t="s">
+        <v>43</v>
+      </c>
+      <c r="E24" s="56">
+        <v>3</v>
+      </c>
+      <c r="F24" s="56"/>
+      <c r="G24" s="15"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="15">
+        <v>17</v>
+      </c>
+      <c r="B25" s="56" t="s">
+        <v>139</v>
+      </c>
+      <c r="C25" s="56" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25" s="56" t="s">
+        <v>42</v>
+      </c>
+      <c r="E25" s="56">
+        <v>8</v>
+      </c>
+      <c r="F25" s="56"/>
+      <c r="G25" s="15" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="15">
+        <v>18</v>
+      </c>
+      <c r="B26" s="56" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="56" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="56" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="56"/>
+      <c r="F26" s="56"/>
+      <c r="G26" s="15"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="15">
+        <v>19</v>
+      </c>
+      <c r="B27" s="56" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" s="56" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="56">
+        <v>6</v>
+      </c>
+      <c r="F27" s="56"/>
+      <c r="G27" s="15"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="15">
         <v>20</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="B28" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28" s="56" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="56"/>
+      <c r="F28" s="56"/>
+      <c r="G28" s="15"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="15">
         <v>21</v>
       </c>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="35"/>
-      <c r="C3" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="35"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="35"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="35"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="11" t="s">
+      <c r="B29" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="56" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" s="56" t="s">
+        <v>3</v>
+      </c>
+      <c r="E29" s="56">
         <v>6</v>
       </c>
-      <c r="E8" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="17">
-        <v>1</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>156</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>153</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="17">
-        <v>7</v>
-      </c>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-    </row>
-    <row r="10" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="17">
-        <v>2</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>147</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="17">
-        <v>7</v>
-      </c>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-    </row>
-    <row r="11" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="17">
-        <v>3</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="17">
-        <v>3</v>
-      </c>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-    </row>
-    <row r="12" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="17">
-        <v>4</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" s="17">
-        <v>8</v>
-      </c>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="17">
-        <v>5</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>155</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="D13" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13" s="17">
-        <v>8</v>
-      </c>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="17">
-        <v>6</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="E14" s="17">
-        <v>8</v>
-      </c>
-      <c r="F14" s="18"/>
-      <c r="G14" s="19" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="17">
-        <v>7</v>
-      </c>
-      <c r="B15" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="E15" s="17">
-        <v>8</v>
-      </c>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="17">
-        <v>8</v>
-      </c>
-      <c r="B16" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="D16" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="E16" s="17">
-        <v>16</v>
-      </c>
-      <c r="F16" s="17">
-        <v>2</v>
-      </c>
-      <c r="G16" s="17"/>
-    </row>
-    <row r="17" spans="1:7" ht="275.39999999999998" x14ac:dyDescent="0.3">
-      <c r="A17" s="17">
-        <v>9</v>
-      </c>
-      <c r="B17" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>151</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="E17" s="17">
-        <v>2</v>
-      </c>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="17">
-        <v>10</v>
-      </c>
-      <c r="B18" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="D18" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="E18" s="17">
-        <v>6</v>
-      </c>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="17">
-        <v>11</v>
-      </c>
-      <c r="B19" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="D19" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="E19" s="17">
-        <v>7</v>
-      </c>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="17">
-        <v>12</v>
-      </c>
-      <c r="B20" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="D20" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="E20" s="17">
-        <v>60</v>
-      </c>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-    </row>
-    <row r="21" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="17">
-        <v>13</v>
-      </c>
-      <c r="B21" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="C21" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="D21" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="E21" s="17">
-        <v>1</v>
-      </c>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="17">
-        <v>14</v>
-      </c>
-      <c r="B22" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="D22" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="E22" s="17">
-        <v>3</v>
-      </c>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="17">
-        <v>15</v>
-      </c>
-      <c r="B23" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="C23" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="D23" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="E23" s="17">
-        <v>10</v>
-      </c>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="17">
-        <v>16</v>
-      </c>
-      <c r="B24" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="C24" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="D24" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="E24" s="33">
-        <v>3</v>
-      </c>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="17">
-        <v>17</v>
-      </c>
-      <c r="B25" s="17" t="s">
-        <v>140</v>
-      </c>
-      <c r="C25" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="D25" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="E25" s="17">
-        <v>8</v>
-      </c>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="17">
-        <v>18</v>
-      </c>
-      <c r="B26" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="D26" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="17">
-        <v>19</v>
-      </c>
-      <c r="B27" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="C27" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D27" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="E27" s="17">
-        <v>6</v>
-      </c>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="17">
-        <v>20</v>
-      </c>
-      <c r="B28" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C28" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="D28" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="17">
-        <v>21</v>
-      </c>
-      <c r="B29" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D29" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="E29" s="17">
-        <v>6</v>
-      </c>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
+      <c r="F29" s="56"/>
+      <c r="G29" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -2213,113 +2184,113 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="C3" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>57</v>
+        <v>54</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>56</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>145</v>
-      </c>
       <c r="C9" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -2345,30 +2316,30 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>66</v>
-      </c>
-      <c r="B2" s="21" t="s">
-        <v>67</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F2" t="s">
         <v>72</v>
       </c>
-      <c r="F2" t="s">
-        <v>73</v>
-      </c>
       <c r="G2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -2376,21 +2347,21 @@
         <v>2</v>
       </c>
       <c r="E3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F3" t="s">
         <v>70</v>
       </c>
-      <c r="F3" t="s">
-        <v>71</v>
-      </c>
       <c r="G3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -2398,513 +2369,497 @@
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>80</v>
+      </c>
+      <c r="B16" t="s">
         <v>81</v>
-      </c>
-      <c r="B16" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C22" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E23" t="s">
+        <v>104</v>
+      </c>
+      <c r="H23" t="s">
         <v>105</v>
       </c>
-      <c r="H23" t="s">
+      <c r="J23" t="s">
         <v>106</v>
-      </c>
-      <c r="J23" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C25" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="16.8" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A28" s="23"/>
-      <c r="B28" s="24" t="s">
+      <c r="A28" s="20"/>
+      <c r="B28" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="C28" s="45" t="s">
         <v>134</v>
       </c>
-      <c r="C28" s="59" t="s">
+      <c r="D28" s="45"/>
+      <c r="E28" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="F28" s="34"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="34"/>
+      <c r="I28" s="34"/>
+      <c r="J28" s="34"/>
+      <c r="K28" s="22"/>
+      <c r="L28" t="s">
+        <v>122</v>
+      </c>
+      <c r="M28" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A29" s="23"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="38" t="s">
+        <v>120</v>
+      </c>
+      <c r="F29" s="38"/>
+      <c r="G29" s="38"/>
+      <c r="H29" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="I29" s="38"/>
+      <c r="J29" s="38"/>
+      <c r="K29" s="24"/>
+      <c r="L29" s="19" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A30" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="B30" s="35" t="s">
+        <v>111</v>
+      </c>
+      <c r="C30" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="D30" s="40"/>
+      <c r="E30" s="47" t="s">
+        <v>131</v>
+      </c>
+      <c r="F30" s="48"/>
+      <c r="G30" s="49"/>
+      <c r="H30" s="47" t="s">
+        <v>129</v>
+      </c>
+      <c r="I30" s="48"/>
+      <c r="J30" s="49"/>
+      <c r="K30" s="24"/>
+      <c r="L30" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A31" s="23"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="41"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="50"/>
+      <c r="F31" s="51"/>
+      <c r="G31" s="52"/>
+      <c r="H31" s="50"/>
+      <c r="I31" s="51"/>
+      <c r="J31" s="52"/>
+      <c r="K31" s="24"/>
+      <c r="L31" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A32" s="23"/>
+      <c r="B32" s="37"/>
+      <c r="C32" s="43"/>
+      <c r="D32" s="44"/>
+      <c r="E32" s="53"/>
+      <c r="F32" s="54"/>
+      <c r="G32" s="55"/>
+      <c r="H32" s="53"/>
+      <c r="I32" s="54"/>
+      <c r="J32" s="55"/>
+      <c r="K32" s="24"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A33" s="23"/>
+      <c r="B33" s="35" t="s">
+        <v>130</v>
+      </c>
+      <c r="C33" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="D33" s="40"/>
+      <c r="E33" s="47" t="s">
+        <v>110</v>
+      </c>
+      <c r="F33" s="48"/>
+      <c r="G33" s="49"/>
+      <c r="H33" s="47" t="s">
+        <v>131</v>
+      </c>
+      <c r="I33" s="48"/>
+      <c r="J33" s="49"/>
+      <c r="K33" s="24"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A34" s="23"/>
+      <c r="B34" s="36"/>
+      <c r="C34" s="41"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="50"/>
+      <c r="F34" s="51"/>
+      <c r="G34" s="52"/>
+      <c r="H34" s="50"/>
+      <c r="I34" s="51"/>
+      <c r="J34" s="52"/>
+      <c r="K34" s="24"/>
+      <c r="L34" t="s">
+        <v>122</v>
+      </c>
+      <c r="M34" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A35" s="23"/>
+      <c r="B35" s="37"/>
+      <c r="C35" s="43"/>
+      <c r="D35" s="44"/>
+      <c r="E35" s="53"/>
+      <c r="F35" s="54"/>
+      <c r="G35" s="55"/>
+      <c r="H35" s="53"/>
+      <c r="I35" s="54"/>
+      <c r="J35" s="55"/>
+      <c r="K35" s="24"/>
+      <c r="L35" s="19" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A36" s="23"/>
+      <c r="B36" s="35" t="s">
+        <v>113</v>
+      </c>
+      <c r="C36" s="39" t="s">
+        <v>114</v>
+      </c>
+      <c r="D36" s="40"/>
+      <c r="E36" s="47" t="s">
+        <v>131</v>
+      </c>
+      <c r="F36" s="48"/>
+      <c r="G36" s="49"/>
+      <c r="H36" s="47" t="s">
+        <v>131</v>
+      </c>
+      <c r="I36" s="48"/>
+      <c r="J36" s="49"/>
+      <c r="K36" s="24"/>
+      <c r="L36" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A37" s="23"/>
+      <c r="B37" s="36"/>
+      <c r="C37" s="41"/>
+      <c r="D37" s="42"/>
+      <c r="E37" s="50"/>
+      <c r="F37" s="51"/>
+      <c r="G37" s="52"/>
+      <c r="H37" s="50"/>
+      <c r="I37" s="51"/>
+      <c r="J37" s="52"/>
+      <c r="K37" s="24"/>
+      <c r="L37" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A38" s="23"/>
+      <c r="B38" s="37"/>
+      <c r="C38" s="43"/>
+      <c r="D38" s="44"/>
+      <c r="E38" s="53"/>
+      <c r="F38" s="54"/>
+      <c r="G38" s="55"/>
+      <c r="H38" s="53"/>
+      <c r="I38" s="54"/>
+      <c r="J38" s="55"/>
+      <c r="K38" s="24"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A39" s="23"/>
+      <c r="B39" s="35" t="s">
         <v>135</v>
       </c>
-      <c r="D28" s="59"/>
-      <c r="E28" s="57" t="s">
-        <v>113</v>
-      </c>
-      <c r="F28" s="57"/>
-      <c r="G28" s="57"/>
-      <c r="H28" s="57"/>
-      <c r="I28" s="57"/>
-      <c r="J28" s="57"/>
-      <c r="K28" s="25"/>
-      <c r="L28" t="s">
-        <v>123</v>
-      </c>
-      <c r="M28" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A29" s="26"/>
-      <c r="B29" s="31"/>
-      <c r="C29" s="55"/>
-      <c r="D29" s="56"/>
-      <c r="E29" s="58" t="s">
-        <v>121</v>
-      </c>
-      <c r="F29" s="58"/>
-      <c r="G29" s="58"/>
-      <c r="H29" s="58" t="s">
-        <v>122</v>
-      </c>
-      <c r="I29" s="58"/>
-      <c r="J29" s="58"/>
-      <c r="K29" s="27"/>
-      <c r="L29" s="22" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A30" s="26" t="s">
-        <v>108</v>
-      </c>
-      <c r="B30" s="36" t="s">
-        <v>112</v>
-      </c>
-      <c r="C30" s="48" t="s">
-        <v>109</v>
-      </c>
-      <c r="D30" s="49"/>
-      <c r="E30" s="39" t="s">
+      <c r="C39" s="39" t="s">
+        <v>115</v>
+      </c>
+      <c r="D39" s="40"/>
+      <c r="E39" s="47" t="s">
         <v>132</v>
       </c>
-      <c r="F30" s="40"/>
-      <c r="G30" s="41"/>
-      <c r="H30" s="39" t="s">
-        <v>130</v>
-      </c>
-      <c r="I30" s="40"/>
-      <c r="J30" s="41"/>
-      <c r="K30" s="27"/>
-      <c r="L30" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A31" s="26"/>
-      <c r="B31" s="37"/>
-      <c r="C31" s="50"/>
-      <c r="D31" s="51"/>
-      <c r="E31" s="42"/>
-      <c r="F31" s="43"/>
-      <c r="G31" s="44"/>
-      <c r="H31" s="42"/>
-      <c r="I31" s="43"/>
-      <c r="J31" s="44"/>
-      <c r="K31" s="27"/>
-      <c r="L31" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A32" s="26"/>
-      <c r="B32" s="38"/>
-      <c r="C32" s="52"/>
-      <c r="D32" s="53"/>
-      <c r="E32" s="45"/>
-      <c r="F32" s="46"/>
-      <c r="G32" s="47"/>
-      <c r="H32" s="45"/>
-      <c r="I32" s="46"/>
-      <c r="J32" s="47"/>
-      <c r="K32" s="27"/>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A33" s="26"/>
-      <c r="B33" s="36" t="s">
+      <c r="F39" s="48"/>
+      <c r="G39" s="49"/>
+      <c r="H39" s="47" t="s">
         <v>131</v>
       </c>
-      <c r="C33" s="48" t="s">
-        <v>110</v>
-      </c>
-      <c r="D33" s="49"/>
-      <c r="E33" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="F33" s="40"/>
-      <c r="G33" s="41"/>
-      <c r="H33" s="39" t="s">
-        <v>132</v>
-      </c>
-      <c r="I33" s="40"/>
-      <c r="J33" s="41"/>
-      <c r="K33" s="27"/>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A34" s="26"/>
-      <c r="B34" s="37"/>
-      <c r="C34" s="50"/>
-      <c r="D34" s="51"/>
-      <c r="E34" s="42"/>
-      <c r="F34" s="43"/>
-      <c r="G34" s="44"/>
-      <c r="H34" s="42"/>
-      <c r="I34" s="43"/>
-      <c r="J34" s="44"/>
-      <c r="K34" s="27"/>
-      <c r="L34" t="s">
-        <v>123</v>
-      </c>
-      <c r="M34" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A35" s="26"/>
-      <c r="B35" s="38"/>
-      <c r="C35" s="52"/>
-      <c r="D35" s="53"/>
-      <c r="E35" s="45"/>
-      <c r="F35" s="46"/>
-      <c r="G35" s="47"/>
-      <c r="H35" s="45"/>
-      <c r="I35" s="46"/>
-      <c r="J35" s="47"/>
-      <c r="K35" s="27"/>
-      <c r="L35" s="22" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A36" s="26"/>
-      <c r="B36" s="36" t="s">
-        <v>114</v>
-      </c>
-      <c r="C36" s="48" t="s">
-        <v>115</v>
-      </c>
-      <c r="D36" s="49"/>
-      <c r="E36" s="39" t="s">
-        <v>132</v>
-      </c>
-      <c r="F36" s="40"/>
-      <c r="G36" s="41"/>
-      <c r="H36" s="39" t="s">
-        <v>132</v>
-      </c>
-      <c r="I36" s="40"/>
-      <c r="J36" s="41"/>
-      <c r="K36" s="27"/>
-      <c r="L36" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A37" s="26"/>
-      <c r="B37" s="37"/>
-      <c r="C37" s="50"/>
-      <c r="D37" s="51"/>
-      <c r="E37" s="42"/>
-      <c r="F37" s="43"/>
-      <c r="G37" s="44"/>
-      <c r="H37" s="42"/>
-      <c r="I37" s="43"/>
-      <c r="J37" s="44"/>
-      <c r="K37" s="27"/>
-      <c r="L37" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A38" s="26"/>
-      <c r="B38" s="38"/>
-      <c r="C38" s="52"/>
-      <c r="D38" s="53"/>
-      <c r="E38" s="45"/>
-      <c r="F38" s="46"/>
-      <c r="G38" s="47"/>
-      <c r="H38" s="45"/>
-      <c r="I38" s="46"/>
-      <c r="J38" s="47"/>
-      <c r="K38" s="27"/>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A39" s="26"/>
-      <c r="B39" s="36" t="s">
+      <c r="I39" s="48"/>
+      <c r="J39" s="49"/>
+      <c r="K39" s="24"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A40" s="23"/>
+      <c r="B40" s="36"/>
+      <c r="C40" s="41"/>
+      <c r="D40" s="42"/>
+      <c r="E40" s="50"/>
+      <c r="F40" s="51"/>
+      <c r="G40" s="52"/>
+      <c r="H40" s="50"/>
+      <c r="I40" s="51"/>
+      <c r="J40" s="52"/>
+      <c r="K40" s="24"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A41" s="23"/>
+      <c r="B41" s="37"/>
+      <c r="C41" s="43"/>
+      <c r="D41" s="44"/>
+      <c r="E41" s="53"/>
+      <c r="F41" s="54"/>
+      <c r="G41" s="55"/>
+      <c r="H41" s="53"/>
+      <c r="I41" s="54"/>
+      <c r="J41" s="55"/>
+      <c r="K41" s="24"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A42" s="23"/>
+      <c r="B42" s="35" t="s">
+        <v>117</v>
+      </c>
+      <c r="C42" s="39" t="s">
+        <v>116</v>
+      </c>
+      <c r="D42" s="40"/>
+      <c r="E42" s="47" t="s">
+        <v>131</v>
+      </c>
+      <c r="F42" s="48"/>
+      <c r="G42" s="49"/>
+      <c r="H42" s="47" t="s">
+        <v>118</v>
+      </c>
+      <c r="I42" s="48"/>
+      <c r="J42" s="49"/>
+      <c r="K42" s="24"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A43" s="23"/>
+      <c r="B43" s="36"/>
+      <c r="C43" s="41"/>
+      <c r="D43" s="42"/>
+      <c r="E43" s="50"/>
+      <c r="F43" s="51"/>
+      <c r="G43" s="52"/>
+      <c r="H43" s="50"/>
+      <c r="I43" s="51"/>
+      <c r="J43" s="52"/>
+      <c r="K43" s="24"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A44" s="23"/>
+      <c r="B44" s="37"/>
+      <c r="C44" s="43"/>
+      <c r="D44" s="44"/>
+      <c r="E44" s="53"/>
+      <c r="F44" s="54"/>
+      <c r="G44" s="55"/>
+      <c r="H44" s="53"/>
+      <c r="I44" s="54"/>
+      <c r="J44" s="55"/>
+      <c r="K44" s="24"/>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A45" s="23"/>
+      <c r="B45" s="35" t="s">
         <v>136</v>
       </c>
-      <c r="C39" s="48" t="s">
-        <v>116</v>
-      </c>
-      <c r="D39" s="49"/>
-      <c r="E39" s="39" t="s">
-        <v>133</v>
-      </c>
-      <c r="F39" s="40"/>
-      <c r="G39" s="41"/>
-      <c r="H39" s="39" t="s">
-        <v>132</v>
-      </c>
-      <c r="I39" s="40"/>
-      <c r="J39" s="41"/>
-      <c r="K39" s="27"/>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A40" s="26"/>
-      <c r="B40" s="37"/>
-      <c r="C40" s="50"/>
-      <c r="D40" s="51"/>
-      <c r="E40" s="42"/>
-      <c r="F40" s="43"/>
-      <c r="G40" s="44"/>
-      <c r="H40" s="42"/>
-      <c r="I40" s="43"/>
-      <c r="J40" s="44"/>
-      <c r="K40" s="27"/>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A41" s="26"/>
-      <c r="B41" s="38"/>
-      <c r="C41" s="52"/>
-      <c r="D41" s="53"/>
-      <c r="E41" s="45"/>
-      <c r="F41" s="46"/>
-      <c r="G41" s="47"/>
-      <c r="H41" s="45"/>
-      <c r="I41" s="46"/>
-      <c r="J41" s="47"/>
-      <c r="K41" s="27"/>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A42" s="26"/>
-      <c r="B42" s="36" t="s">
-        <v>118</v>
-      </c>
-      <c r="C42" s="48" t="s">
-        <v>117</v>
-      </c>
-      <c r="D42" s="49"/>
-      <c r="E42" s="39" t="s">
-        <v>132</v>
-      </c>
-      <c r="F42" s="40"/>
-      <c r="G42" s="41"/>
-      <c r="H42" s="39" t="s">
+      <c r="C45" s="39" t="s">
         <v>119</v>
       </c>
-      <c r="I42" s="40"/>
-      <c r="J42" s="41"/>
-      <c r="K42" s="27"/>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A43" s="26"/>
-      <c r="B43" s="37"/>
-      <c r="C43" s="50"/>
-      <c r="D43" s="51"/>
-      <c r="E43" s="42"/>
-      <c r="F43" s="43"/>
-      <c r="G43" s="44"/>
-      <c r="H43" s="42"/>
-      <c r="I43" s="43"/>
-      <c r="J43" s="44"/>
-      <c r="K43" s="27"/>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A44" s="26"/>
-      <c r="B44" s="38"/>
-      <c r="C44" s="52"/>
-      <c r="D44" s="53"/>
-      <c r="E44" s="45"/>
-      <c r="F44" s="46"/>
-      <c r="G44" s="47"/>
-      <c r="H44" s="45"/>
-      <c r="I44" s="46"/>
-      <c r="J44" s="47"/>
-      <c r="K44" s="27"/>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A45" s="26"/>
-      <c r="B45" s="36" t="s">
-        <v>137</v>
-      </c>
-      <c r="C45" s="48" t="s">
-        <v>120</v>
-      </c>
-      <c r="D45" s="49"/>
-      <c r="E45" s="39" t="s">
-        <v>132</v>
-      </c>
-      <c r="F45" s="40"/>
-      <c r="G45" s="41"/>
-      <c r="H45" s="39" t="s">
-        <v>132</v>
-      </c>
-      <c r="I45" s="40"/>
-      <c r="J45" s="41"/>
-      <c r="K45" s="27"/>
+      <c r="D45" s="40"/>
+      <c r="E45" s="47" t="s">
+        <v>131</v>
+      </c>
+      <c r="F45" s="48"/>
+      <c r="G45" s="49"/>
+      <c r="H45" s="47" t="s">
+        <v>131</v>
+      </c>
+      <c r="I45" s="48"/>
+      <c r="J45" s="49"/>
+      <c r="K45" s="24"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A46" s="26"/>
-      <c r="B46" s="37"/>
-      <c r="C46" s="50"/>
-      <c r="D46" s="51"/>
-      <c r="E46" s="42"/>
-      <c r="F46" s="43"/>
-      <c r="G46" s="44"/>
-      <c r="H46" s="42"/>
-      <c r="I46" s="43"/>
-      <c r="J46" s="44"/>
-      <c r="K46" s="27"/>
+      <c r="A46" s="23"/>
+      <c r="B46" s="36"/>
+      <c r="C46" s="41"/>
+      <c r="D46" s="42"/>
+      <c r="E46" s="50"/>
+      <c r="F46" s="51"/>
+      <c r="G46" s="52"/>
+      <c r="H46" s="50"/>
+      <c r="I46" s="51"/>
+      <c r="J46" s="52"/>
+      <c r="K46" s="24"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A47" s="26"/>
-      <c r="B47" s="38"/>
-      <c r="C47" s="52"/>
-      <c r="D47" s="53"/>
-      <c r="E47" s="45"/>
-      <c r="F47" s="46"/>
-      <c r="G47" s="47"/>
-      <c r="H47" s="45"/>
-      <c r="I47" s="46"/>
-      <c r="J47" s="47"/>
-      <c r="K47" s="27"/>
+      <c r="A47" s="23"/>
+      <c r="B47" s="37"/>
+      <c r="C47" s="43"/>
+      <c r="D47" s="44"/>
+      <c r="E47" s="53"/>
+      <c r="F47" s="54"/>
+      <c r="G47" s="55"/>
+      <c r="H47" s="53"/>
+      <c r="I47" s="54"/>
+      <c r="J47" s="55"/>
+      <c r="K47" s="24"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A48" s="26"/>
-      <c r="B48" s="31"/>
-      <c r="C48" s="55"/>
-      <c r="D48" s="56"/>
-      <c r="E48" s="54"/>
-      <c r="F48" s="54"/>
-      <c r="G48" s="54"/>
-      <c r="H48" s="54"/>
-      <c r="I48" s="54"/>
-      <c r="J48" s="54"/>
-      <c r="K48" s="27"/>
+      <c r="A48" s="23"/>
+      <c r="B48" s="28"/>
+      <c r="C48" s="32"/>
+      <c r="D48" s="33"/>
+      <c r="E48" s="46"/>
+      <c r="F48" s="46"/>
+      <c r="G48" s="46"/>
+      <c r="H48" s="46"/>
+      <c r="I48" s="46"/>
+      <c r="J48" s="46"/>
+      <c r="K48" s="24"/>
     </row>
     <row r="49" spans="1:11" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="28"/>
-      <c r="B49" s="29"/>
-      <c r="C49" s="29"/>
-      <c r="D49" s="29"/>
-      <c r="E49" s="29"/>
-      <c r="F49" s="29"/>
-      <c r="G49" s="29"/>
-      <c r="H49" s="29"/>
-      <c r="I49" s="29"/>
-      <c r="J49" s="29"/>
-      <c r="K49" s="30"/>
+      <c r="A49" s="25"/>
+      <c r="B49" s="26"/>
+      <c r="C49" s="26"/>
+      <c r="D49" s="26"/>
+      <c r="E49" s="26"/>
+      <c r="F49" s="26"/>
+      <c r="G49" s="26"/>
+      <c r="H49" s="26"/>
+      <c r="I49" s="26"/>
+      <c r="J49" s="26"/>
+      <c r="K49" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E28:J28"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="C30:D32"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C39:D41"/>
-    <mergeCell ref="C42:D44"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="H48:J48"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C45:D47"/>
-    <mergeCell ref="E42:G44"/>
-    <mergeCell ref="E45:G47"/>
-    <mergeCell ref="H45:J47"/>
     <mergeCell ref="B45:B47"/>
     <mergeCell ref="E30:G32"/>
     <mergeCell ref="E33:G35"/>
@@ -2921,6 +2876,22 @@
     <mergeCell ref="B39:B41"/>
     <mergeCell ref="B42:B44"/>
     <mergeCell ref="C36:D38"/>
+    <mergeCell ref="C39:D41"/>
+    <mergeCell ref="C42:D44"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="H48:J48"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C45:D47"/>
+    <mergeCell ref="E42:G44"/>
+    <mergeCell ref="E45:G47"/>
+    <mergeCell ref="H45:J47"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E28:J28"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="C30:D32"/>
+    <mergeCell ref="C28:D28"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L2-業務作業/ForeclosureFee.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L2-業務作業/ForeclosureFee.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L2-業務作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB64E00A-90FC-41B5-96F0-02652537FDF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E6FF0F5-9F02-4F57-8CDD-BBD39C510BF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="164">
   <si>
     <t>讀取Key條件</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -716,6 +716,10 @@
   </si>
   <si>
     <t>銷帳時新增一筆紀錄號碼(11:全額沖銷、15:催收沖銷)，將此紀錄號碼寫入原被沖銷該筆</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReceiveDate,CustNo</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1123,7 +1127,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1215,12 +1219,75 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1230,77 +1297,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1609,8 +1610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1625,10 +1626,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="31"/>
+      <c r="B1" s="33"/>
       <c r="C1" s="6" t="s">
         <v>140</v>
       </c>
@@ -1640,8 +1641,8 @@
       <c r="G1" s="9"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="30"/>
-      <c r="B2" s="31"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="33"/>
       <c r="C2" s="10" t="s">
         <v>20</v>
       </c>
@@ -1653,10 +1654,10 @@
       <c r="G2" s="8"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="31"/>
+      <c r="B3" s="33"/>
       <c r="C3" s="6" t="s">
         <v>28</v>
       </c>
@@ -1668,10 +1669,10 @@
       <c r="G3" s="8"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="31"/>
+      <c r="B4" s="33"/>
       <c r="C4" s="12"/>
       <c r="D4" s="13"/>
       <c r="E4" s="8"/>
@@ -1679,10 +1680,10 @@
       <c r="G4" s="8"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="31"/>
+      <c r="B5" s="33"/>
       <c r="C5" s="12" t="s">
         <v>141</v>
       </c>
@@ -1692,21 +1693,23 @@
       <c r="G5" s="8"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="31"/>
-      <c r="C6" s="12"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="12" t="s">
+        <v>163</v>
+      </c>
       <c r="D6" s="13"/>
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="31"/>
+      <c r="B7" s="33"/>
       <c r="C7" s="12"/>
       <c r="D7" s="13"/>
       <c r="E7" s="8"/>
@@ -1740,95 +1743,95 @@
       <c r="A9" s="15">
         <v>1</v>
       </c>
-      <c r="B9" s="56" t="s">
+      <c r="B9" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="C9" s="56" t="s">
+      <c r="C9" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="D9" s="56" t="s">
+      <c r="D9" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="56">
+      <c r="E9" s="15">
         <v>7</v>
       </c>
-      <c r="F9" s="56"/>
+      <c r="F9" s="15"/>
       <c r="G9" s="15"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="15">
         <v>2</v>
       </c>
-      <c r="B10" s="56" t="s">
+      <c r="B10" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="C10" s="56" t="s">
+      <c r="C10" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="D10" s="56" t="s">
+      <c r="D10" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="56">
+      <c r="E10" s="15">
         <v>7</v>
       </c>
-      <c r="F10" s="56"/>
+      <c r="F10" s="15"/>
       <c r="G10" s="15"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="15">
         <v>3</v>
       </c>
-      <c r="B11" s="56" t="s">
+      <c r="B11" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="C11" s="56" t="s">
+      <c r="C11" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="D11" s="56" t="s">
+      <c r="D11" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="56">
+      <c r="E11" s="15">
         <v>3</v>
       </c>
-      <c r="F11" s="56"/>
+      <c r="F11" s="15"/>
       <c r="G11" s="15"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="15">
         <v>4</v>
       </c>
-      <c r="B12" s="56" t="s">
+      <c r="B12" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="C12" s="56" t="s">
+      <c r="C12" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="D12" s="56" t="s">
+      <c r="D12" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="E12" s="56">
+      <c r="E12" s="15">
         <v>8</v>
       </c>
-      <c r="F12" s="56"/>
+      <c r="F12" s="15"/>
       <c r="G12" s="15"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="15">
         <v>5</v>
       </c>
-      <c r="B13" s="56" t="s">
+      <c r="B13" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="C13" s="56" t="s">
+      <c r="C13" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="D13" s="56" t="s">
+      <c r="D13" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="E13" s="56">
+      <c r="E13" s="15">
         <v>8</v>
       </c>
-      <c r="F13" s="56"/>
+      <c r="F13" s="15"/>
       <c r="G13" s="15" t="s">
         <v>137</v>
       </c>
@@ -1837,19 +1840,19 @@
       <c r="A14" s="15">
         <v>6</v>
       </c>
-      <c r="B14" s="57" t="s">
+      <c r="B14" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="C14" s="57" t="s">
+      <c r="C14" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="D14" s="56" t="s">
+      <c r="D14" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="E14" s="56">
+      <c r="E14" s="15">
         <v>8</v>
       </c>
-      <c r="F14" s="57"/>
+      <c r="F14" s="30"/>
       <c r="G14" s="16" t="s">
         <v>138</v>
       </c>
@@ -1858,19 +1861,19 @@
       <c r="A15" s="15">
         <v>7</v>
       </c>
-      <c r="B15" s="56" t="s">
+      <c r="B15" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="C15" s="56" t="s">
+      <c r="C15" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="56" t="s">
+      <c r="D15" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="E15" s="56">
+      <c r="E15" s="15">
         <v>8</v>
       </c>
-      <c r="F15" s="56"/>
+      <c r="F15" s="15"/>
       <c r="G15" s="15" t="s">
         <v>64</v>
       </c>
@@ -1879,19 +1882,19 @@
       <c r="A16" s="15">
         <v>8</v>
       </c>
-      <c r="B16" s="56" t="s">
+      <c r="B16" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="C16" s="56" t="s">
+      <c r="C16" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="D16" s="56" t="s">
+      <c r="D16" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="E16" s="56">
+      <c r="E16" s="15">
         <v>16</v>
       </c>
-      <c r="F16" s="56">
+      <c r="F16" s="15">
         <v>2</v>
       </c>
       <c r="G16" s="15"/>
@@ -1900,19 +1903,19 @@
       <c r="A17" s="15">
         <v>9</v>
       </c>
-      <c r="B17" s="56" t="s">
+      <c r="B17" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="C17" s="56" t="s">
+      <c r="C17" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="D17" s="56" t="s">
+      <c r="D17" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="E17" s="56">
+      <c r="E17" s="15">
         <v>2</v>
       </c>
-      <c r="F17" s="56"/>
+      <c r="F17" s="15"/>
       <c r="G17" s="15" t="s">
         <v>159</v>
       </c>
@@ -1921,19 +1924,19 @@
       <c r="A18" s="15">
         <v>10</v>
       </c>
-      <c r="B18" s="56" t="s">
+      <c r="B18" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="56" t="s">
+      <c r="C18" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="D18" s="56" t="s">
+      <c r="D18" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="E18" s="56">
+      <c r="E18" s="15">
         <v>6</v>
       </c>
-      <c r="F18" s="56"/>
+      <c r="F18" s="15"/>
       <c r="G18" s="15"/>
     </row>
     <row r="19" spans="1:8" ht="64.8" x14ac:dyDescent="0.3">
@@ -1956,7 +1959,7 @@
       <c r="G19" s="29" t="s">
         <v>162</v>
       </c>
-      <c r="H19" s="58" t="s">
+      <c r="H19" s="31" t="s">
         <v>160</v>
       </c>
     </row>
@@ -1964,38 +1967,38 @@
       <c r="A20" s="15">
         <v>12</v>
       </c>
-      <c r="B20" s="56" t="s">
+      <c r="B20" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="56" t="s">
+      <c r="C20" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D20" s="56" t="s">
+      <c r="D20" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="E20" s="56">
+      <c r="E20" s="15">
         <v>60</v>
       </c>
-      <c r="F20" s="56"/>
+      <c r="F20" s="15"/>
       <c r="G20" s="15"/>
     </row>
     <row r="21" spans="1:8" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A21" s="15">
         <v>13</v>
       </c>
-      <c r="B21" s="56" t="s">
+      <c r="B21" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="C21" s="56" t="s">
+      <c r="C21" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="D21" s="56" t="s">
+      <c r="D21" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="E21" s="56">
+      <c r="E21" s="15">
         <v>1</v>
       </c>
-      <c r="F21" s="56"/>
+      <c r="F21" s="15"/>
       <c r="G21" s="15" t="s">
         <v>158</v>
       </c>
@@ -2004,76 +2007,76 @@
       <c r="A22" s="15">
         <v>14</v>
       </c>
-      <c r="B22" s="56" t="s">
+      <c r="B22" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="56" t="s">
+      <c r="C22" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="D22" s="56" t="s">
+      <c r="D22" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="E22" s="56">
+      <c r="E22" s="15">
         <v>3</v>
       </c>
-      <c r="F22" s="56"/>
+      <c r="F22" s="15"/>
       <c r="G22" s="15"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="15">
         <v>15</v>
       </c>
-      <c r="B23" s="56" t="s">
+      <c r="B23" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="56" t="s">
+      <c r="C23" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="D23" s="56" t="s">
+      <c r="D23" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="E23" s="56">
+      <c r="E23" s="15">
         <v>10</v>
       </c>
-      <c r="F23" s="56"/>
+      <c r="F23" s="15"/>
       <c r="G23" s="15"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="15">
         <v>16</v>
       </c>
-      <c r="B24" s="56" t="s">
+      <c r="B24" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="C24" s="56" t="s">
+      <c r="C24" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="D24" s="56" t="s">
+      <c r="D24" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="E24" s="56">
+      <c r="E24" s="15">
         <v>3</v>
       </c>
-      <c r="F24" s="56"/>
+      <c r="F24" s="15"/>
       <c r="G24" s="15"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="15">
         <v>17</v>
       </c>
-      <c r="B25" s="56" t="s">
+      <c r="B25" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="C25" s="56" t="s">
+      <c r="C25" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="D25" s="56" t="s">
+      <c r="D25" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="E25" s="56">
+      <c r="E25" s="15">
         <v>8</v>
       </c>
-      <c r="F25" s="56"/>
+      <c r="F25" s="15"/>
       <c r="G25" s="15" t="s">
         <v>89</v>
       </c>
@@ -2082,72 +2085,72 @@
       <c r="A26" s="15">
         <v>18</v>
       </c>
-      <c r="B26" s="56" t="s">
+      <c r="B26" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C26" s="56" t="s">
+      <c r="C26" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D26" s="56" t="s">
+      <c r="D26" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E26" s="56"/>
-      <c r="F26" s="56"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
       <c r="G26" s="15"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="15">
         <v>19</v>
       </c>
-      <c r="B27" s="56" t="s">
+      <c r="B27" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C27" s="56" t="s">
+      <c r="C27" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D27" s="56" t="s">
+      <c r="D27" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E27" s="56">
+      <c r="E27" s="15">
         <v>6</v>
       </c>
-      <c r="F27" s="56"/>
+      <c r="F27" s="15"/>
       <c r="G27" s="15"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="15">
         <v>20</v>
       </c>
-      <c r="B28" s="56" t="s">
+      <c r="B28" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="56" t="s">
+      <c r="C28" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D28" s="56" t="s">
+      <c r="D28" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E28" s="56"/>
-      <c r="F28" s="56"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
       <c r="G28" s="15"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="15">
         <v>21</v>
       </c>
-      <c r="B29" s="56" t="s">
+      <c r="B29" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C29" s="56" t="s">
+      <c r="C29" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D29" s="56" t="s">
+      <c r="D29" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E29" s="56">
+      <c r="E29" s="15">
         <v>6</v>
       </c>
-      <c r="F29" s="56"/>
+      <c r="F29" s="15"/>
       <c r="G29" s="15"/>
     </row>
   </sheetData>
@@ -2487,18 +2490,18 @@
       <c r="B28" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="C28" s="45" t="s">
+      <c r="C28" s="57" t="s">
         <v>134</v>
       </c>
-      <c r="D28" s="45"/>
-      <c r="E28" s="34" t="s">
+      <c r="D28" s="57"/>
+      <c r="E28" s="55" t="s">
         <v>112</v>
       </c>
-      <c r="F28" s="34"/>
-      <c r="G28" s="34"/>
-      <c r="H28" s="34"/>
-      <c r="I28" s="34"/>
-      <c r="J28" s="34"/>
+      <c r="F28" s="55"/>
+      <c r="G28" s="55"/>
+      <c r="H28" s="55"/>
+      <c r="I28" s="55"/>
+      <c r="J28" s="55"/>
       <c r="K28" s="22"/>
       <c r="L28" t="s">
         <v>122</v>
@@ -2510,18 +2513,18 @@
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="23"/>
       <c r="B29" s="28"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="33"/>
-      <c r="E29" s="38" t="s">
+      <c r="C29" s="53"/>
+      <c r="D29" s="54"/>
+      <c r="E29" s="56" t="s">
         <v>120</v>
       </c>
-      <c r="F29" s="38"/>
-      <c r="G29" s="38"/>
-      <c r="H29" s="38" t="s">
+      <c r="F29" s="56"/>
+      <c r="G29" s="56"/>
+      <c r="H29" s="56" t="s">
         <v>121</v>
       </c>
-      <c r="I29" s="38"/>
-      <c r="J29" s="38"/>
+      <c r="I29" s="56"/>
+      <c r="J29" s="56"/>
       <c r="K29" s="24"/>
       <c r="L29" s="19" t="s">
         <v>125</v>
@@ -2531,23 +2534,23 @@
       <c r="A30" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="B30" s="35" t="s">
+      <c r="B30" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="C30" s="39" t="s">
+      <c r="C30" s="46" t="s">
         <v>108</v>
       </c>
-      <c r="D30" s="40"/>
-      <c r="E30" s="47" t="s">
+      <c r="D30" s="47"/>
+      <c r="E30" s="37" t="s">
         <v>131</v>
       </c>
-      <c r="F30" s="48"/>
-      <c r="G30" s="49"/>
-      <c r="H30" s="47" t="s">
+      <c r="F30" s="38"/>
+      <c r="G30" s="39"/>
+      <c r="H30" s="37" t="s">
         <v>129</v>
       </c>
-      <c r="I30" s="48"/>
-      <c r="J30" s="49"/>
+      <c r="I30" s="38"/>
+      <c r="J30" s="39"/>
       <c r="K30" s="24"/>
       <c r="L30" t="s">
         <v>124</v>
@@ -2555,15 +2558,15 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="23"/>
-      <c r="B31" s="36"/>
-      <c r="C31" s="41"/>
-      <c r="D31" s="42"/>
-      <c r="E31" s="50"/>
-      <c r="F31" s="51"/>
-      <c r="G31" s="52"/>
-      <c r="H31" s="50"/>
-      <c r="I31" s="51"/>
-      <c r="J31" s="52"/>
+      <c r="B31" s="35"/>
+      <c r="C31" s="48"/>
+      <c r="D31" s="49"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="41"/>
+      <c r="G31" s="42"/>
+      <c r="H31" s="40"/>
+      <c r="I31" s="41"/>
+      <c r="J31" s="42"/>
       <c r="K31" s="24"/>
       <c r="L31" t="s">
         <v>126</v>
@@ -2571,49 +2574,49 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="23"/>
-      <c r="B32" s="37"/>
-      <c r="C32" s="43"/>
-      <c r="D32" s="44"/>
-      <c r="E32" s="53"/>
-      <c r="F32" s="54"/>
-      <c r="G32" s="55"/>
-      <c r="H32" s="53"/>
-      <c r="I32" s="54"/>
-      <c r="J32" s="55"/>
+      <c r="B32" s="36"/>
+      <c r="C32" s="50"/>
+      <c r="D32" s="51"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="44"/>
+      <c r="G32" s="45"/>
+      <c r="H32" s="43"/>
+      <c r="I32" s="44"/>
+      <c r="J32" s="45"/>
       <c r="K32" s="24"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="23"/>
-      <c r="B33" s="35" t="s">
+      <c r="B33" s="34" t="s">
         <v>130</v>
       </c>
-      <c r="C33" s="39" t="s">
+      <c r="C33" s="46" t="s">
         <v>109</v>
       </c>
-      <c r="D33" s="40"/>
-      <c r="E33" s="47" t="s">
+      <c r="D33" s="47"/>
+      <c r="E33" s="37" t="s">
         <v>110</v>
       </c>
-      <c r="F33" s="48"/>
-      <c r="G33" s="49"/>
-      <c r="H33" s="47" t="s">
+      <c r="F33" s="38"/>
+      <c r="G33" s="39"/>
+      <c r="H33" s="37" t="s">
         <v>131</v>
       </c>
-      <c r="I33" s="48"/>
-      <c r="J33" s="49"/>
+      <c r="I33" s="38"/>
+      <c r="J33" s="39"/>
       <c r="K33" s="24"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="23"/>
-      <c r="B34" s="36"/>
-      <c r="C34" s="41"/>
-      <c r="D34" s="42"/>
-      <c r="E34" s="50"/>
-      <c r="F34" s="51"/>
-      <c r="G34" s="52"/>
-      <c r="H34" s="50"/>
-      <c r="I34" s="51"/>
-      <c r="J34" s="52"/>
+      <c r="B34" s="35"/>
+      <c r="C34" s="48"/>
+      <c r="D34" s="49"/>
+      <c r="E34" s="40"/>
+      <c r="F34" s="41"/>
+      <c r="G34" s="42"/>
+      <c r="H34" s="40"/>
+      <c r="I34" s="41"/>
+      <c r="J34" s="42"/>
       <c r="K34" s="24"/>
       <c r="L34" t="s">
         <v>122</v>
@@ -2624,15 +2627,15 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="23"/>
-      <c r="B35" s="37"/>
-      <c r="C35" s="43"/>
-      <c r="D35" s="44"/>
-      <c r="E35" s="53"/>
-      <c r="F35" s="54"/>
-      <c r="G35" s="55"/>
-      <c r="H35" s="53"/>
-      <c r="I35" s="54"/>
-      <c r="J35" s="55"/>
+      <c r="B35" s="36"/>
+      <c r="C35" s="50"/>
+      <c r="D35" s="51"/>
+      <c r="E35" s="43"/>
+      <c r="F35" s="44"/>
+      <c r="G35" s="45"/>
+      <c r="H35" s="43"/>
+      <c r="I35" s="44"/>
+      <c r="J35" s="45"/>
       <c r="K35" s="24"/>
       <c r="L35" s="19" t="s">
         <v>125</v>
@@ -2640,23 +2643,23 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="23"/>
-      <c r="B36" s="35" t="s">
+      <c r="B36" s="34" t="s">
         <v>113</v>
       </c>
-      <c r="C36" s="39" t="s">
+      <c r="C36" s="46" t="s">
         <v>114</v>
       </c>
-      <c r="D36" s="40"/>
-      <c r="E36" s="47" t="s">
+      <c r="D36" s="47"/>
+      <c r="E36" s="37" t="s">
         <v>131</v>
       </c>
-      <c r="F36" s="48"/>
-      <c r="G36" s="49"/>
-      <c r="H36" s="47" t="s">
+      <c r="F36" s="38"/>
+      <c r="G36" s="39"/>
+      <c r="H36" s="37" t="s">
         <v>131</v>
       </c>
-      <c r="I36" s="48"/>
-      <c r="J36" s="49"/>
+      <c r="I36" s="38"/>
+      <c r="J36" s="39"/>
       <c r="K36" s="24"/>
       <c r="L36" t="s">
         <v>124</v>
@@ -2664,15 +2667,15 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" s="23"/>
-      <c r="B37" s="36"/>
-      <c r="C37" s="41"/>
-      <c r="D37" s="42"/>
-      <c r="E37" s="50"/>
-      <c r="F37" s="51"/>
-      <c r="G37" s="52"/>
-      <c r="H37" s="50"/>
-      <c r="I37" s="51"/>
-      <c r="J37" s="52"/>
+      <c r="B37" s="35"/>
+      <c r="C37" s="48"/>
+      <c r="D37" s="49"/>
+      <c r="E37" s="40"/>
+      <c r="F37" s="41"/>
+      <c r="G37" s="42"/>
+      <c r="H37" s="40"/>
+      <c r="I37" s="41"/>
+      <c r="J37" s="42"/>
       <c r="K37" s="24"/>
       <c r="L37" t="s">
         <v>128</v>
@@ -2680,169 +2683,169 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" s="23"/>
-      <c r="B38" s="37"/>
-      <c r="C38" s="43"/>
-      <c r="D38" s="44"/>
-      <c r="E38" s="53"/>
-      <c r="F38" s="54"/>
-      <c r="G38" s="55"/>
-      <c r="H38" s="53"/>
-      <c r="I38" s="54"/>
-      <c r="J38" s="55"/>
+      <c r="B38" s="36"/>
+      <c r="C38" s="50"/>
+      <c r="D38" s="51"/>
+      <c r="E38" s="43"/>
+      <c r="F38" s="44"/>
+      <c r="G38" s="45"/>
+      <c r="H38" s="43"/>
+      <c r="I38" s="44"/>
+      <c r="J38" s="45"/>
       <c r="K38" s="24"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" s="23"/>
-      <c r="B39" s="35" t="s">
+      <c r="B39" s="34" t="s">
         <v>135</v>
       </c>
-      <c r="C39" s="39" t="s">
+      <c r="C39" s="46" t="s">
         <v>115</v>
       </c>
-      <c r="D39" s="40"/>
-      <c r="E39" s="47" t="s">
+      <c r="D39" s="47"/>
+      <c r="E39" s="37" t="s">
         <v>132</v>
       </c>
-      <c r="F39" s="48"/>
-      <c r="G39" s="49"/>
-      <c r="H39" s="47" t="s">
+      <c r="F39" s="38"/>
+      <c r="G39" s="39"/>
+      <c r="H39" s="37" t="s">
         <v>131</v>
       </c>
-      <c r="I39" s="48"/>
-      <c r="J39" s="49"/>
+      <c r="I39" s="38"/>
+      <c r="J39" s="39"/>
       <c r="K39" s="24"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" s="23"/>
-      <c r="B40" s="36"/>
-      <c r="C40" s="41"/>
-      <c r="D40" s="42"/>
-      <c r="E40" s="50"/>
-      <c r="F40" s="51"/>
-      <c r="G40" s="52"/>
-      <c r="H40" s="50"/>
-      <c r="I40" s="51"/>
-      <c r="J40" s="52"/>
+      <c r="B40" s="35"/>
+      <c r="C40" s="48"/>
+      <c r="D40" s="49"/>
+      <c r="E40" s="40"/>
+      <c r="F40" s="41"/>
+      <c r="G40" s="42"/>
+      <c r="H40" s="40"/>
+      <c r="I40" s="41"/>
+      <c r="J40" s="42"/>
       <c r="K40" s="24"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" s="23"/>
-      <c r="B41" s="37"/>
-      <c r="C41" s="43"/>
-      <c r="D41" s="44"/>
-      <c r="E41" s="53"/>
-      <c r="F41" s="54"/>
-      <c r="G41" s="55"/>
-      <c r="H41" s="53"/>
-      <c r="I41" s="54"/>
-      <c r="J41" s="55"/>
+      <c r="B41" s="36"/>
+      <c r="C41" s="50"/>
+      <c r="D41" s="51"/>
+      <c r="E41" s="43"/>
+      <c r="F41" s="44"/>
+      <c r="G41" s="45"/>
+      <c r="H41" s="43"/>
+      <c r="I41" s="44"/>
+      <c r="J41" s="45"/>
       <c r="K41" s="24"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" s="23"/>
-      <c r="B42" s="35" t="s">
+      <c r="B42" s="34" t="s">
         <v>117</v>
       </c>
-      <c r="C42" s="39" t="s">
+      <c r="C42" s="46" t="s">
         <v>116</v>
       </c>
-      <c r="D42" s="40"/>
-      <c r="E42" s="47" t="s">
+      <c r="D42" s="47"/>
+      <c r="E42" s="37" t="s">
         <v>131</v>
       </c>
-      <c r="F42" s="48"/>
-      <c r="G42" s="49"/>
-      <c r="H42" s="47" t="s">
+      <c r="F42" s="38"/>
+      <c r="G42" s="39"/>
+      <c r="H42" s="37" t="s">
         <v>118</v>
       </c>
-      <c r="I42" s="48"/>
-      <c r="J42" s="49"/>
+      <c r="I42" s="38"/>
+      <c r="J42" s="39"/>
       <c r="K42" s="24"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" s="23"/>
-      <c r="B43" s="36"/>
-      <c r="C43" s="41"/>
-      <c r="D43" s="42"/>
-      <c r="E43" s="50"/>
-      <c r="F43" s="51"/>
-      <c r="G43" s="52"/>
-      <c r="H43" s="50"/>
-      <c r="I43" s="51"/>
-      <c r="J43" s="52"/>
+      <c r="B43" s="35"/>
+      <c r="C43" s="48"/>
+      <c r="D43" s="49"/>
+      <c r="E43" s="40"/>
+      <c r="F43" s="41"/>
+      <c r="G43" s="42"/>
+      <c r="H43" s="40"/>
+      <c r="I43" s="41"/>
+      <c r="J43" s="42"/>
       <c r="K43" s="24"/>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" s="23"/>
-      <c r="B44" s="37"/>
-      <c r="C44" s="43"/>
-      <c r="D44" s="44"/>
-      <c r="E44" s="53"/>
-      <c r="F44" s="54"/>
-      <c r="G44" s="55"/>
-      <c r="H44" s="53"/>
-      <c r="I44" s="54"/>
-      <c r="J44" s="55"/>
+      <c r="B44" s="36"/>
+      <c r="C44" s="50"/>
+      <c r="D44" s="51"/>
+      <c r="E44" s="43"/>
+      <c r="F44" s="44"/>
+      <c r="G44" s="45"/>
+      <c r="H44" s="43"/>
+      <c r="I44" s="44"/>
+      <c r="J44" s="45"/>
       <c r="K44" s="24"/>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" s="23"/>
-      <c r="B45" s="35" t="s">
+      <c r="B45" s="34" t="s">
         <v>136</v>
       </c>
-      <c r="C45" s="39" t="s">
+      <c r="C45" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="D45" s="40"/>
-      <c r="E45" s="47" t="s">
+      <c r="D45" s="47"/>
+      <c r="E45" s="37" t="s">
         <v>131</v>
       </c>
-      <c r="F45" s="48"/>
-      <c r="G45" s="49"/>
-      <c r="H45" s="47" t="s">
+      <c r="F45" s="38"/>
+      <c r="G45" s="39"/>
+      <c r="H45" s="37" t="s">
         <v>131</v>
       </c>
-      <c r="I45" s="48"/>
-      <c r="J45" s="49"/>
+      <c r="I45" s="38"/>
+      <c r="J45" s="39"/>
       <c r="K45" s="24"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" s="23"/>
-      <c r="B46" s="36"/>
-      <c r="C46" s="41"/>
-      <c r="D46" s="42"/>
-      <c r="E46" s="50"/>
-      <c r="F46" s="51"/>
-      <c r="G46" s="52"/>
-      <c r="H46" s="50"/>
-      <c r="I46" s="51"/>
-      <c r="J46" s="52"/>
+      <c r="B46" s="35"/>
+      <c r="C46" s="48"/>
+      <c r="D46" s="49"/>
+      <c r="E46" s="40"/>
+      <c r="F46" s="41"/>
+      <c r="G46" s="42"/>
+      <c r="H46" s="40"/>
+      <c r="I46" s="41"/>
+      <c r="J46" s="42"/>
       <c r="K46" s="24"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" s="23"/>
-      <c r="B47" s="37"/>
-      <c r="C47" s="43"/>
-      <c r="D47" s="44"/>
-      <c r="E47" s="53"/>
-      <c r="F47" s="54"/>
-      <c r="G47" s="55"/>
-      <c r="H47" s="53"/>
-      <c r="I47" s="54"/>
-      <c r="J47" s="55"/>
+      <c r="B47" s="36"/>
+      <c r="C47" s="50"/>
+      <c r="D47" s="51"/>
+      <c r="E47" s="43"/>
+      <c r="F47" s="44"/>
+      <c r="G47" s="45"/>
+      <c r="H47" s="43"/>
+      <c r="I47" s="44"/>
+      <c r="J47" s="45"/>
       <c r="K47" s="24"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" s="23"/>
       <c r="B48" s="28"/>
-      <c r="C48" s="32"/>
-      <c r="D48" s="33"/>
-      <c r="E48" s="46"/>
-      <c r="F48" s="46"/>
-      <c r="G48" s="46"/>
-      <c r="H48" s="46"/>
-      <c r="I48" s="46"/>
-      <c r="J48" s="46"/>
+      <c r="C48" s="53"/>
+      <c r="D48" s="54"/>
+      <c r="E48" s="52"/>
+      <c r="F48" s="52"/>
+      <c r="G48" s="52"/>
+      <c r="H48" s="52"/>
+      <c r="I48" s="52"/>
+      <c r="J48" s="52"/>
       <c r="K48" s="24"/>
     </row>
     <row r="49" spans="1:11" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -2860,6 +2863,22 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E28:J28"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="C30:D32"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C39:D41"/>
+    <mergeCell ref="C42:D44"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="H48:J48"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C45:D47"/>
+    <mergeCell ref="E42:G44"/>
+    <mergeCell ref="E45:G47"/>
+    <mergeCell ref="H45:J47"/>
     <mergeCell ref="B45:B47"/>
     <mergeCell ref="E30:G32"/>
     <mergeCell ref="E33:G35"/>
@@ -2876,22 +2895,6 @@
     <mergeCell ref="B39:B41"/>
     <mergeCell ref="B42:B44"/>
     <mergeCell ref="C36:D38"/>
-    <mergeCell ref="C39:D41"/>
-    <mergeCell ref="C42:D44"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="H48:J48"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C45:D47"/>
-    <mergeCell ref="E42:G44"/>
-    <mergeCell ref="E45:G47"/>
-    <mergeCell ref="H45:J47"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E28:J28"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="C30:D32"/>
-    <mergeCell ref="C28:D28"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L2-業務作業/ForeclosureFee.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L2-業務作業/ForeclosureFee.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L2-業務作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E6FF0F5-9F02-4F57-8CDD-BBD39C510BF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C573CDD-C1D5-4F37-8446-2A66EAED914A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -117,9 +117,6 @@
   </si>
   <si>
     <t>LastUpdateEmpNo</t>
-  </si>
-  <si>
-    <t>DATE</t>
   </si>
   <si>
     <t>CreateDate</t>
@@ -721,6 +718,9 @@
   <si>
     <t>ReceiveDate,CustNo</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIMESTAMP</t>
   </si>
 </sst>
 </file>
@@ -1231,6 +1231,15 @@
     <xf numFmtId="49" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1240,6 +1249,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1265,42 +1301,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1610,8 +1610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1627,14 +1627,14 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="32" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B1" s="33"/>
       <c r="C1" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E1" s="8"/>
       <c r="F1" s="9"/>
@@ -1644,10 +1644,10 @@
       <c r="A2" s="32"/>
       <c r="B2" s="33"/>
       <c r="C2" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="11" t="s">
         <v>20</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>21</v>
       </c>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
@@ -1655,14 +1655,14 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" s="33"/>
       <c r="C3" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
@@ -1670,7 +1670,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="32" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B4" s="33"/>
       <c r="C4" s="12"/>
@@ -1681,11 +1681,11 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="32" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5" s="33"/>
       <c r="C5" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="8"/>
@@ -1694,11 +1694,11 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="32" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B6" s="33"/>
       <c r="C6" s="12" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="8"/>
@@ -1707,7 +1707,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="32" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B7" s="33"/>
       <c r="C7" s="12"/>
@@ -1718,7 +1718,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>4</v>
@@ -1744,13 +1744,13 @@
         <v>1</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E9" s="15">
         <v>7</v>
@@ -1763,13 +1763,13 @@
         <v>2</v>
       </c>
       <c r="B10" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="C10" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="C10" s="15" t="s">
-        <v>146</v>
-      </c>
       <c r="D10" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E10" s="15">
         <v>7</v>
@@ -1782,13 +1782,13 @@
         <v>3</v>
       </c>
       <c r="B11" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="C11" s="15" t="s">
-        <v>53</v>
-      </c>
       <c r="D11" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E11" s="15">
         <v>3</v>
@@ -1801,13 +1801,13 @@
         <v>4</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E12" s="15">
         <v>8</v>
@@ -1820,20 +1820,20 @@
         <v>5</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E13" s="15">
         <v>8</v>
       </c>
       <c r="F13" s="15"/>
       <c r="G13" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.3">
@@ -1841,20 +1841,20 @@
         <v>6</v>
       </c>
       <c r="B14" s="30" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C14" s="30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E14" s="15">
         <v>8</v>
       </c>
       <c r="F14" s="30"/>
       <c r="G14" s="16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -1862,20 +1862,20 @@
         <v>7</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C15" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="15" t="s">
         <v>41</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>42</v>
       </c>
       <c r="E15" s="15">
         <v>8</v>
       </c>
       <c r="F15" s="15"/>
       <c r="G15" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -1883,13 +1883,13 @@
         <v>8</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E16" s="15">
         <v>16</v>
@@ -1904,20 +1904,20 @@
         <v>9</v>
       </c>
       <c r="B17" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="C17" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="C17" s="15" t="s">
-        <v>150</v>
-      </c>
       <c r="D17" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E17" s="15">
         <v>2</v>
       </c>
       <c r="F17" s="15"/>
       <c r="G17" s="15" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
@@ -1925,13 +1925,13 @@
         <v>10</v>
       </c>
       <c r="B18" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="15" t="s">
-        <v>31</v>
-      </c>
       <c r="D18" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E18" s="15">
         <v>6</v>
@@ -1944,23 +1944,23 @@
         <v>11</v>
       </c>
       <c r="B19" s="29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C19" s="29" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D19" s="29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E19" s="29">
         <v>7</v>
       </c>
       <c r="F19" s="29"/>
       <c r="G19" s="29" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H19" s="31" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
@@ -1968,13 +1968,13 @@
         <v>12</v>
       </c>
       <c r="B20" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="15" t="s">
-        <v>34</v>
-      </c>
       <c r="D20" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E20" s="15">
         <v>60</v>
@@ -1987,20 +1987,20 @@
         <v>13</v>
       </c>
       <c r="B21" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="C21" s="15" t="s">
-        <v>62</v>
-      </c>
       <c r="D21" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E21" s="15">
         <v>1</v>
       </c>
       <c r="F21" s="15"/>
       <c r="G21" s="15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
@@ -2008,13 +2008,13 @@
         <v>14</v>
       </c>
       <c r="B22" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="15" t="s">
-        <v>36</v>
-      </c>
       <c r="D22" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E22" s="15">
         <v>3</v>
@@ -2027,13 +2027,13 @@
         <v>15</v>
       </c>
       <c r="B23" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="15" t="s">
-        <v>38</v>
-      </c>
       <c r="D23" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E23" s="15">
         <v>10</v>
@@ -2046,13 +2046,13 @@
         <v>16</v>
       </c>
       <c r="B24" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="C24" s="15" t="s">
-        <v>40</v>
-      </c>
       <c r="D24" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E24" s="15">
         <v>3</v>
@@ -2065,20 +2065,20 @@
         <v>17</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E25" s="15">
         <v>8</v>
       </c>
       <c r="F25" s="15"/>
       <c r="G25" s="15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
@@ -2086,13 +2086,13 @@
         <v>18</v>
       </c>
       <c r="B26" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C26" s="15" t="s">
-        <v>13</v>
-      </c>
       <c r="D26" s="15" t="s">
-        <v>11</v>
+        <v>163</v>
       </c>
       <c r="E26" s="15"/>
       <c r="F26" s="15"/>
@@ -2103,10 +2103,10 @@
         <v>19</v>
       </c>
       <c r="B27" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" s="15" t="s">
         <v>14</v>
-      </c>
-      <c r="C27" s="15" t="s">
-        <v>15</v>
       </c>
       <c r="D27" s="15" t="s">
         <v>3</v>
@@ -2122,13 +2122,13 @@
         <v>20</v>
       </c>
       <c r="B28" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="15" t="s">
-        <v>17</v>
-      </c>
       <c r="D28" s="15" t="s">
-        <v>11</v>
+        <v>163</v>
       </c>
       <c r="E28" s="15"/>
       <c r="F28" s="15"/>
@@ -2142,7 +2142,7 @@
         <v>10</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D29" s="15" t="s">
         <v>3</v>
@@ -2199,101 +2199,101 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="C3" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>144</v>
-      </c>
       <c r="C9" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -2319,30 +2319,30 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>65</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>66</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F2" t="s">
         <v>71</v>
       </c>
-      <c r="F2" t="s">
-        <v>72</v>
-      </c>
       <c r="G2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -2350,21 +2350,21 @@
         <v>2</v>
       </c>
       <c r="E3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F3" t="s">
         <v>69</v>
       </c>
-      <c r="F3" t="s">
-        <v>70</v>
-      </c>
       <c r="G3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -2372,480 +2372,480 @@
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>79</v>
+      </c>
+      <c r="B16" t="s">
         <v>80</v>
-      </c>
-      <c r="B16" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C22" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E23" t="s">
+        <v>103</v>
+      </c>
+      <c r="H23" t="s">
         <v>104</v>
       </c>
-      <c r="H23" t="s">
+      <c r="J23" t="s">
         <v>105</v>
-      </c>
-      <c r="J23" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="16.8" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="20"/>
       <c r="B28" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="C28" s="47" t="s">
         <v>133</v>
       </c>
-      <c r="C28" s="57" t="s">
-        <v>134</v>
-      </c>
-      <c r="D28" s="57"/>
-      <c r="E28" s="55" t="s">
-        <v>112</v>
-      </c>
-      <c r="F28" s="55"/>
-      <c r="G28" s="55"/>
-      <c r="H28" s="55"/>
-      <c r="I28" s="55"/>
-      <c r="J28" s="55"/>
+      <c r="D28" s="47"/>
+      <c r="E28" s="36" t="s">
+        <v>111</v>
+      </c>
+      <c r="F28" s="36"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="36"/>
+      <c r="J28" s="36"/>
       <c r="K28" s="22"/>
       <c r="L28" t="s">
+        <v>121</v>
+      </c>
+      <c r="M28" t="s">
         <v>122</v>
-      </c>
-      <c r="M28" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="23"/>
       <c r="B29" s="28"/>
-      <c r="C29" s="53"/>
-      <c r="D29" s="54"/>
-      <c r="E29" s="56" t="s">
+      <c r="C29" s="34"/>
+      <c r="D29" s="35"/>
+      <c r="E29" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="F29" s="40"/>
+      <c r="G29" s="40"/>
+      <c r="H29" s="40" t="s">
         <v>120</v>
       </c>
-      <c r="F29" s="56"/>
-      <c r="G29" s="56"/>
-      <c r="H29" s="56" t="s">
-        <v>121</v>
-      </c>
-      <c r="I29" s="56"/>
-      <c r="J29" s="56"/>
+      <c r="I29" s="40"/>
+      <c r="J29" s="40"/>
       <c r="K29" s="24"/>
       <c r="L29" s="19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="B30" s="37" t="s">
+        <v>110</v>
+      </c>
+      <c r="C30" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="B30" s="34" t="s">
-        <v>111</v>
-      </c>
-      <c r="C30" s="46" t="s">
-        <v>108</v>
-      </c>
-      <c r="D30" s="47"/>
-      <c r="E30" s="37" t="s">
-        <v>131</v>
-      </c>
-      <c r="F30" s="38"/>
-      <c r="G30" s="39"/>
-      <c r="H30" s="37" t="s">
-        <v>129</v>
-      </c>
-      <c r="I30" s="38"/>
-      <c r="J30" s="39"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="49" t="s">
+        <v>130</v>
+      </c>
+      <c r="F30" s="50"/>
+      <c r="G30" s="51"/>
+      <c r="H30" s="49" t="s">
+        <v>128</v>
+      </c>
+      <c r="I30" s="50"/>
+      <c r="J30" s="51"/>
       <c r="K30" s="24"/>
       <c r="L30" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="23"/>
-      <c r="B31" s="35"/>
-      <c r="C31" s="48"/>
-      <c r="D31" s="49"/>
-      <c r="E31" s="40"/>
-      <c r="F31" s="41"/>
-      <c r="G31" s="42"/>
-      <c r="H31" s="40"/>
-      <c r="I31" s="41"/>
-      <c r="J31" s="42"/>
+      <c r="B31" s="38"/>
+      <c r="C31" s="43"/>
+      <c r="D31" s="44"/>
+      <c r="E31" s="52"/>
+      <c r="F31" s="53"/>
+      <c r="G31" s="54"/>
+      <c r="H31" s="52"/>
+      <c r="I31" s="53"/>
+      <c r="J31" s="54"/>
       <c r="K31" s="24"/>
       <c r="L31" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="23"/>
-      <c r="B32" s="36"/>
-      <c r="C32" s="50"/>
-      <c r="D32" s="51"/>
-      <c r="E32" s="43"/>
-      <c r="F32" s="44"/>
-      <c r="G32" s="45"/>
-      <c r="H32" s="43"/>
-      <c r="I32" s="44"/>
-      <c r="J32" s="45"/>
+      <c r="B32" s="39"/>
+      <c r="C32" s="45"/>
+      <c r="D32" s="46"/>
+      <c r="E32" s="55"/>
+      <c r="F32" s="56"/>
+      <c r="G32" s="57"/>
+      <c r="H32" s="55"/>
+      <c r="I32" s="56"/>
+      <c r="J32" s="57"/>
       <c r="K32" s="24"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="23"/>
-      <c r="B33" s="34" t="s">
+      <c r="B33" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="C33" s="41" t="s">
+        <v>108</v>
+      </c>
+      <c r="D33" s="42"/>
+      <c r="E33" s="49" t="s">
+        <v>109</v>
+      </c>
+      <c r="F33" s="50"/>
+      <c r="G33" s="51"/>
+      <c r="H33" s="49" t="s">
         <v>130</v>
       </c>
-      <c r="C33" s="46" t="s">
-        <v>109</v>
-      </c>
-      <c r="D33" s="47"/>
-      <c r="E33" s="37" t="s">
-        <v>110</v>
-      </c>
-      <c r="F33" s="38"/>
-      <c r="G33" s="39"/>
-      <c r="H33" s="37" t="s">
-        <v>131</v>
-      </c>
-      <c r="I33" s="38"/>
-      <c r="J33" s="39"/>
+      <c r="I33" s="50"/>
+      <c r="J33" s="51"/>
       <c r="K33" s="24"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="23"/>
-      <c r="B34" s="35"/>
-      <c r="C34" s="48"/>
-      <c r="D34" s="49"/>
-      <c r="E34" s="40"/>
-      <c r="F34" s="41"/>
-      <c r="G34" s="42"/>
-      <c r="H34" s="40"/>
-      <c r="I34" s="41"/>
-      <c r="J34" s="42"/>
+      <c r="B34" s="38"/>
+      <c r="C34" s="43"/>
+      <c r="D34" s="44"/>
+      <c r="E34" s="52"/>
+      <c r="F34" s="53"/>
+      <c r="G34" s="54"/>
+      <c r="H34" s="52"/>
+      <c r="I34" s="53"/>
+      <c r="J34" s="54"/>
       <c r="K34" s="24"/>
       <c r="L34" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M34" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="23"/>
-      <c r="B35" s="36"/>
-      <c r="C35" s="50"/>
-      <c r="D35" s="51"/>
-      <c r="E35" s="43"/>
-      <c r="F35" s="44"/>
-      <c r="G35" s="45"/>
-      <c r="H35" s="43"/>
-      <c r="I35" s="44"/>
-      <c r="J35" s="45"/>
+      <c r="B35" s="39"/>
+      <c r="C35" s="45"/>
+      <c r="D35" s="46"/>
+      <c r="E35" s="55"/>
+      <c r="F35" s="56"/>
+      <c r="G35" s="57"/>
+      <c r="H35" s="55"/>
+      <c r="I35" s="56"/>
+      <c r="J35" s="57"/>
       <c r="K35" s="24"/>
       <c r="L35" s="19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="23"/>
-      <c r="B36" s="34" t="s">
+      <c r="B36" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="C36" s="41" t="s">
         <v>113</v>
       </c>
-      <c r="C36" s="46" t="s">
-        <v>114</v>
-      </c>
-      <c r="D36" s="47"/>
-      <c r="E36" s="37" t="s">
-        <v>131</v>
-      </c>
-      <c r="F36" s="38"/>
-      <c r="G36" s="39"/>
-      <c r="H36" s="37" t="s">
-        <v>131</v>
-      </c>
-      <c r="I36" s="38"/>
-      <c r="J36" s="39"/>
+      <c r="D36" s="42"/>
+      <c r="E36" s="49" t="s">
+        <v>130</v>
+      </c>
+      <c r="F36" s="50"/>
+      <c r="G36" s="51"/>
+      <c r="H36" s="49" t="s">
+        <v>130</v>
+      </c>
+      <c r="I36" s="50"/>
+      <c r="J36" s="51"/>
       <c r="K36" s="24"/>
       <c r="L36" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" s="23"/>
-      <c r="B37" s="35"/>
-      <c r="C37" s="48"/>
-      <c r="D37" s="49"/>
-      <c r="E37" s="40"/>
-      <c r="F37" s="41"/>
-      <c r="G37" s="42"/>
-      <c r="H37" s="40"/>
-      <c r="I37" s="41"/>
-      <c r="J37" s="42"/>
+      <c r="B37" s="38"/>
+      <c r="C37" s="43"/>
+      <c r="D37" s="44"/>
+      <c r="E37" s="52"/>
+      <c r="F37" s="53"/>
+      <c r="G37" s="54"/>
+      <c r="H37" s="52"/>
+      <c r="I37" s="53"/>
+      <c r="J37" s="54"/>
       <c r="K37" s="24"/>
       <c r="L37" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" s="23"/>
-      <c r="B38" s="36"/>
-      <c r="C38" s="50"/>
-      <c r="D38" s="51"/>
-      <c r="E38" s="43"/>
-      <c r="F38" s="44"/>
-      <c r="G38" s="45"/>
-      <c r="H38" s="43"/>
-      <c r="I38" s="44"/>
-      <c r="J38" s="45"/>
+      <c r="B38" s="39"/>
+      <c r="C38" s="45"/>
+      <c r="D38" s="46"/>
+      <c r="E38" s="55"/>
+      <c r="F38" s="56"/>
+      <c r="G38" s="57"/>
+      <c r="H38" s="55"/>
+      <c r="I38" s="56"/>
+      <c r="J38" s="57"/>
       <c r="K38" s="24"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" s="23"/>
-      <c r="B39" s="34" t="s">
-        <v>135</v>
-      </c>
-      <c r="C39" s="46" t="s">
-        <v>115</v>
-      </c>
-      <c r="D39" s="47"/>
-      <c r="E39" s="37" t="s">
-        <v>132</v>
-      </c>
-      <c r="F39" s="38"/>
-      <c r="G39" s="39"/>
-      <c r="H39" s="37" t="s">
+      <c r="B39" s="37" t="s">
+        <v>134</v>
+      </c>
+      <c r="C39" s="41" t="s">
+        <v>114</v>
+      </c>
+      <c r="D39" s="42"/>
+      <c r="E39" s="49" t="s">
         <v>131</v>
       </c>
-      <c r="I39" s="38"/>
-      <c r="J39" s="39"/>
+      <c r="F39" s="50"/>
+      <c r="G39" s="51"/>
+      <c r="H39" s="49" t="s">
+        <v>130</v>
+      </c>
+      <c r="I39" s="50"/>
+      <c r="J39" s="51"/>
       <c r="K39" s="24"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" s="23"/>
-      <c r="B40" s="35"/>
-      <c r="C40" s="48"/>
-      <c r="D40" s="49"/>
-      <c r="E40" s="40"/>
-      <c r="F40" s="41"/>
-      <c r="G40" s="42"/>
-      <c r="H40" s="40"/>
-      <c r="I40" s="41"/>
-      <c r="J40" s="42"/>
+      <c r="B40" s="38"/>
+      <c r="C40" s="43"/>
+      <c r="D40" s="44"/>
+      <c r="E40" s="52"/>
+      <c r="F40" s="53"/>
+      <c r="G40" s="54"/>
+      <c r="H40" s="52"/>
+      <c r="I40" s="53"/>
+      <c r="J40" s="54"/>
       <c r="K40" s="24"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" s="23"/>
-      <c r="B41" s="36"/>
-      <c r="C41" s="50"/>
-      <c r="D41" s="51"/>
-      <c r="E41" s="43"/>
-      <c r="F41" s="44"/>
-      <c r="G41" s="45"/>
-      <c r="H41" s="43"/>
-      <c r="I41" s="44"/>
-      <c r="J41" s="45"/>
+      <c r="B41" s="39"/>
+      <c r="C41" s="45"/>
+      <c r="D41" s="46"/>
+      <c r="E41" s="55"/>
+      <c r="F41" s="56"/>
+      <c r="G41" s="57"/>
+      <c r="H41" s="55"/>
+      <c r="I41" s="56"/>
+      <c r="J41" s="57"/>
       <c r="K41" s="24"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" s="23"/>
-      <c r="B42" s="34" t="s">
+      <c r="B42" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="C42" s="41" t="s">
+        <v>115</v>
+      </c>
+      <c r="D42" s="42"/>
+      <c r="E42" s="49" t="s">
+        <v>130</v>
+      </c>
+      <c r="F42" s="50"/>
+      <c r="G42" s="51"/>
+      <c r="H42" s="49" t="s">
         <v>117</v>
       </c>
-      <c r="C42" s="46" t="s">
-        <v>116</v>
-      </c>
-      <c r="D42" s="47"/>
-      <c r="E42" s="37" t="s">
-        <v>131</v>
-      </c>
-      <c r="F42" s="38"/>
-      <c r="G42" s="39"/>
-      <c r="H42" s="37" t="s">
-        <v>118</v>
-      </c>
-      <c r="I42" s="38"/>
-      <c r="J42" s="39"/>
+      <c r="I42" s="50"/>
+      <c r="J42" s="51"/>
       <c r="K42" s="24"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" s="23"/>
-      <c r="B43" s="35"/>
-      <c r="C43" s="48"/>
-      <c r="D43" s="49"/>
-      <c r="E43" s="40"/>
-      <c r="F43" s="41"/>
-      <c r="G43" s="42"/>
-      <c r="H43" s="40"/>
-      <c r="I43" s="41"/>
-      <c r="J43" s="42"/>
+      <c r="B43" s="38"/>
+      <c r="C43" s="43"/>
+      <c r="D43" s="44"/>
+      <c r="E43" s="52"/>
+      <c r="F43" s="53"/>
+      <c r="G43" s="54"/>
+      <c r="H43" s="52"/>
+      <c r="I43" s="53"/>
+      <c r="J43" s="54"/>
       <c r="K43" s="24"/>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" s="23"/>
-      <c r="B44" s="36"/>
-      <c r="C44" s="50"/>
-      <c r="D44" s="51"/>
-      <c r="E44" s="43"/>
-      <c r="F44" s="44"/>
-      <c r="G44" s="45"/>
-      <c r="H44" s="43"/>
-      <c r="I44" s="44"/>
-      <c r="J44" s="45"/>
+      <c r="B44" s="39"/>
+      <c r="C44" s="45"/>
+      <c r="D44" s="46"/>
+      <c r="E44" s="55"/>
+      <c r="F44" s="56"/>
+      <c r="G44" s="57"/>
+      <c r="H44" s="55"/>
+      <c r="I44" s="56"/>
+      <c r="J44" s="57"/>
       <c r="K44" s="24"/>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" s="23"/>
-      <c r="B45" s="34" t="s">
-        <v>136</v>
-      </c>
-      <c r="C45" s="46" t="s">
-        <v>119</v>
-      </c>
-      <c r="D45" s="47"/>
-      <c r="E45" s="37" t="s">
-        <v>131</v>
-      </c>
-      <c r="F45" s="38"/>
-      <c r="G45" s="39"/>
-      <c r="H45" s="37" t="s">
-        <v>131</v>
-      </c>
-      <c r="I45" s="38"/>
-      <c r="J45" s="39"/>
+      <c r="B45" s="37" t="s">
+        <v>135</v>
+      </c>
+      <c r="C45" s="41" t="s">
+        <v>118</v>
+      </c>
+      <c r="D45" s="42"/>
+      <c r="E45" s="49" t="s">
+        <v>130</v>
+      </c>
+      <c r="F45" s="50"/>
+      <c r="G45" s="51"/>
+      <c r="H45" s="49" t="s">
+        <v>130</v>
+      </c>
+      <c r="I45" s="50"/>
+      <c r="J45" s="51"/>
       <c r="K45" s="24"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" s="23"/>
-      <c r="B46" s="35"/>
-      <c r="C46" s="48"/>
-      <c r="D46" s="49"/>
-      <c r="E46" s="40"/>
-      <c r="F46" s="41"/>
-      <c r="G46" s="42"/>
-      <c r="H46" s="40"/>
-      <c r="I46" s="41"/>
-      <c r="J46" s="42"/>
+      <c r="B46" s="38"/>
+      <c r="C46" s="43"/>
+      <c r="D46" s="44"/>
+      <c r="E46" s="52"/>
+      <c r="F46" s="53"/>
+      <c r="G46" s="54"/>
+      <c r="H46" s="52"/>
+      <c r="I46" s="53"/>
+      <c r="J46" s="54"/>
       <c r="K46" s="24"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" s="23"/>
-      <c r="B47" s="36"/>
-      <c r="C47" s="50"/>
-      <c r="D47" s="51"/>
-      <c r="E47" s="43"/>
-      <c r="F47" s="44"/>
-      <c r="G47" s="45"/>
-      <c r="H47" s="43"/>
-      <c r="I47" s="44"/>
-      <c r="J47" s="45"/>
+      <c r="B47" s="39"/>
+      <c r="C47" s="45"/>
+      <c r="D47" s="46"/>
+      <c r="E47" s="55"/>
+      <c r="F47" s="56"/>
+      <c r="G47" s="57"/>
+      <c r="H47" s="55"/>
+      <c r="I47" s="56"/>
+      <c r="J47" s="57"/>
       <c r="K47" s="24"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" s="23"/>
       <c r="B48" s="28"/>
-      <c r="C48" s="53"/>
-      <c r="D48" s="54"/>
-      <c r="E48" s="52"/>
-      <c r="F48" s="52"/>
-      <c r="G48" s="52"/>
-      <c r="H48" s="52"/>
-      <c r="I48" s="52"/>
-      <c r="J48" s="52"/>
+      <c r="C48" s="34"/>
+      <c r="D48" s="35"/>
+      <c r="E48" s="48"/>
+      <c r="F48" s="48"/>
+      <c r="G48" s="48"/>
+      <c r="H48" s="48"/>
+      <c r="I48" s="48"/>
+      <c r="J48" s="48"/>
       <c r="K48" s="24"/>
     </row>
     <row r="49" spans="1:11" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -2863,22 +2863,6 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E28:J28"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="C30:D32"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C39:D41"/>
-    <mergeCell ref="C42:D44"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="H48:J48"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C45:D47"/>
-    <mergeCell ref="E42:G44"/>
-    <mergeCell ref="E45:G47"/>
-    <mergeCell ref="H45:J47"/>
     <mergeCell ref="B45:B47"/>
     <mergeCell ref="E30:G32"/>
     <mergeCell ref="E33:G35"/>
@@ -2895,6 +2879,22 @@
     <mergeCell ref="B39:B41"/>
     <mergeCell ref="B42:B44"/>
     <mergeCell ref="C36:D38"/>
+    <mergeCell ref="C39:D41"/>
+    <mergeCell ref="C42:D44"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="H48:J48"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C45:D47"/>
+    <mergeCell ref="E42:G44"/>
+    <mergeCell ref="E45:G47"/>
+    <mergeCell ref="H45:J47"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E28:J28"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="C30:D32"/>
+    <mergeCell ref="C28:D28"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
